--- a/data/trans_bre/P18_5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P18_5_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,67</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,85</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>8,86</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6,27</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>32,95%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>20,7%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>117,51%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-9,32%</t>
+          <t>124,9%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11,33%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24,84%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>176,62%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>76,96%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 17,17</t>
+          <t>-3,05; 17,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 6,4</t>
+          <t>-5,36; 5,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 12,98</t>
+          <t>0,57; 12,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 7,31</t>
+          <t>-6,52; 8,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,65; -0,85</t>
+          <t>-7,27; 11,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 101,49</t>
+          <t>1,7; 16,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-57,66; 340,04</t>
+          <t>-2,97; 15,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 470,55</t>
+          <t>-13,39; 108,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-49,47; 142,06</t>
+          <t>-64,11; 202,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-17,57; -1,26</t>
+          <t>2,24; 420,73</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-47,29; 173,64</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-49,25; 190,62</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 903,23</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-28,53; 354,48</t>
         </is>
       </c>
     </row>
@@ -756,12 +828,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -771,37 +843,57 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,59</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,07%</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-37,9%</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,97%</t>
+          <t>-8,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>-45,19%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-10,1%</t>
+          <t>52,68%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-2,35%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>72,56%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>188,84%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-22,15%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 9,02</t>
+          <t>-14,46; 8,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 3,05</t>
+          <t>-21,57; 1,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 10,08</t>
+          <t>-1,36; 11,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 6,8</t>
+          <t>-10,19; 6,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,49; -1,96</t>
+          <t>-1,87; 11,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,91; 46,18</t>
+          <t>2,64; 17,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-76,63; 44,31</t>
+          <t>-10,47; 5,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 168,21</t>
+          <t>-41,3; 46,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-52,59; 89,87</t>
+          <t>-81,75; 18,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-16,89; -2,38</t>
+          <t>-16,99; 186,12</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-52,45; 79,62</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-22,27; 267,4</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>16,71; 847,42</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-66,28; 121,74</t>
         </is>
       </c>
     </row>
@@ -881,47 +993,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>45,85%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>53,4%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-2,76%</t>
+          <t>50,31%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>58,33%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,86%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>25,31%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>27,84%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 8,25</t>
+          <t>-6,44; 9,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 6,32</t>
+          <t>-6,46; 5,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 9,94</t>
+          <t>-0,55; 11,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 9,97</t>
+          <t>0,85; 10,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 4,74</t>
+          <t>-6,38; 7,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 44,35</t>
+          <t>-3,22; 8,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,75; 129,34</t>
+          <t>-3,9; 7,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 124,87</t>
+          <t>-23,5; 48,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 148,73</t>
+          <t>-50,77; 103,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 5,65</t>
+          <t>-6,63; 145,25</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5,87; 171,39</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-31,64; 55,23</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-29,18; 121,04</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-39,6; 137,81</t>
         </is>
       </c>
     </row>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,84</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>43,92%</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>133,58%</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>43,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>66,17%</t>
+          <t>127,58%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-8,72%</t>
+          <t>43,22%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>63,05%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>63,14%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>77,08%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>22,29%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 16,92</t>
+          <t>2,33; 16,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,67; 13,34</t>
+          <t>3,09; 13,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 11,76</t>
+          <t>-0,71; 11,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 13,68</t>
+          <t>1,92; 13,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,58; -1,35</t>
+          <t>-1,47; 14,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 89,81</t>
+          <t>0,87; 14,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,3; 324,07</t>
+          <t>-3,85; 9,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 109,4</t>
+          <t>5,33; 89,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,82; 155,22</t>
+          <t>29,29; 289,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-15,88; -1,51</t>
+          <t>-4,57; 101,11</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11,73; 140,47</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-15,4; 155,85</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,46; 190,01</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-22,41; 94,68</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,15</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,27</t>
+          <t>10,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,93</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>59,89%</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>233,34%</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>71,01%</t>
+          <t>59,9%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>55,97%</t>
+          <t>218,79%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-6,77%</t>
+          <t>72,92%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>53,22%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>60,19%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>47,54%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>11,16%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,9; 19,63</t>
+          <t>3,07; 18,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 14,52</t>
+          <t>3,55; 13,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 17,58</t>
+          <t>3,66; 17,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 13,95</t>
+          <t>0,03; 14,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 1,19</t>
+          <t>0,32; 14,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,43; 123,89</t>
+          <t>-1,38; 13,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,03; 625,94</t>
+          <t>-5,28; 8,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,88; 149,56</t>
+          <t>11,92; 122,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 136,34</t>
+          <t>46,58; 582,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 1,39</t>
+          <t>22,37; 151,35</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 136,44</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 167,9</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-9,91; 162,34</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-34,02; 97,32</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1468,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,01</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1246,42 +1478,62 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,58</t>
+          <t>11,68</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>12,57</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>35,68%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>50,31%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-0,61%</t>
+          <t>22,72%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>62,54%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>114,81%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>53,93%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,95; 18,95</t>
+          <t>2,24; 18,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 11,44</t>
+          <t>-6,49; 11,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 12,35</t>
+          <t>-4,19; 13,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 18,39</t>
+          <t>1,38; 21,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 8,81</t>
+          <t>2,36; 23,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,96; 82,22</t>
+          <t>-8,76; 9,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,53; 102,78</t>
+          <t>-2,02; 16,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 77,4</t>
+          <t>7,22; 78,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 128,86</t>
+          <t>-31,8; 105,39</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 11,25</t>
+          <t>-15,43; 80,9</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3,13; 153,17</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4,31; 331,63</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-41,65; 76,98</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-15,0; 178,9</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>40,04%</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>50,88%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>47,12%</t>
+          <t>31,9%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-6,64%</t>
+          <t>53,96%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>48,75%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>53,34%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>60,08%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>30,74%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 10,04</t>
+          <t>3,08; 10,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 6,15</t>
+          <t>-0,13; 5,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,31; 9,24</t>
+          <t>3,88; 9,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 8,6</t>
+          <t>2,94; 8,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,24; -3,07</t>
+          <t>2,87; 9,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,19; 47,19</t>
+          <t>2,86; 9,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,05; 82,63</t>
+          <t>0,09; 6,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,92; 84,27</t>
+          <t>12,15; 47,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,92; 79,0</t>
+          <t>-3,21; 77,45</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-10,1; -3,5</t>
+          <t>26,25; 84,26</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>20,34; 82,69</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>21,86; 96,21</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>24,33; 107,14</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 66,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
